--- a/scimagojr/scimagojr_2021.xlsx
+++ b/scimagojr/scimagojr_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="253">
   <si>
     <t>Rank</t>
   </si>
@@ -74,6 +74,12 @@
     <t>Japan</t>
   </si>
   <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Eastern Europe</t>
+  </si>
+  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -86,24 +92,18 @@
     <t>Pacific Region</t>
   </si>
   <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Eastern Europe</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Latin America</t>
+  </si>
+  <si>
     <t>South Korea</t>
   </si>
   <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Latin America</t>
-  </si>
-  <si>
     <t>Iran</t>
   </si>
   <si>
@@ -122,12 +122,12 @@
     <t>Switzerland</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
@@ -146,27 +146,27 @@
     <t>Africa/Middle East</t>
   </si>
   <si>
+    <t>Portugal</t>
+  </si>
+  <si>
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Portugal</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
     <t>Mexico</t>
   </si>
   <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -185,42 +185,42 @@
     <t>Greece</t>
   </si>
   <si>
+    <t>Finland</t>
+  </si>
+  <si>
     <t>Thailand</t>
   </si>
   <si>
-    <t>Finland</t>
+    <t>Ukraine</t>
   </si>
   <si>
     <t>Ireland</t>
   </si>
   <si>
+    <t>Chile</t>
+  </si>
+  <si>
     <t>New Zealand</t>
   </si>
   <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
+    <t>Romania</t>
   </si>
   <si>
     <t>Viet Nam</t>
   </si>
   <si>
-    <t>Romania</t>
-  </si>
-  <si>
     <t>Colombia</t>
   </si>
   <si>
     <t>Argentina</t>
   </si>
   <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
     <t>Iraq</t>
   </si>
   <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
     <t>Hungary</t>
   </si>
   <si>
@@ -233,18 +233,18 @@
     <t>Morocco</t>
   </si>
   <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
     <t>Algeria</t>
   </si>
   <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
     <t>Tunisia</t>
   </si>
   <si>
@@ -254,12 +254,12 @@
     <t>Slovenia</t>
   </si>
   <si>
+    <t>Peru</t>
+  </si>
+  <si>
     <t>Jordan</t>
   </si>
   <si>
-    <t>Peru</t>
-  </si>
-  <si>
     <t>Bulgaria</t>
   </si>
   <si>
@@ -275,43 +275,49 @@
     <t>Kazakhstan</t>
   </si>
   <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
     <t>Ghana</t>
   </si>
   <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Kenya</t>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
   </si>
   <si>
     <t>Lebanon</t>
   </si>
   <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
     <t>Oman</t>
   </si>
   <si>
+    <t>Nepal</t>
+  </si>
+  <si>
     <t>Macao</t>
   </si>
   <si>
-    <t>Nepal</t>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Latvia</t>
   </si>
   <si>
     <t>Uganda</t>
   </si>
   <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Cuba</t>
   </si>
   <si>
     <t>Kuwait</t>
@@ -320,37 +326,34 @@
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>Belarus</t>
+    <t>Tanzania</t>
   </si>
   <si>
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
-    <t>Cuba</t>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
   </si>
   <si>
     <t>Iceland</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
-    <t>Costa Rica</t>
+    <t>Venezuela</t>
   </si>
   <si>
     <t>Yemen</t>
@@ -362,21 +365,18 @@
     <t>Bahrain</t>
   </si>
   <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
     <t>Malta</t>
   </si>
   <si>
+    <t>Armenia</t>
+  </si>
+  <si>
     <t>Malawi</t>
   </si>
   <si>
-    <t>Armenia</t>
-  </si>
-  <si>
     <t>Macedonia</t>
   </si>
   <si>
@@ -389,15 +389,15 @@
     <t>Syrian Arab Republic</t>
   </si>
   <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
     <t>Rwanda</t>
   </si>
   <si>
     <t>Zambia</t>
   </si>
   <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
     <t>Botswana</t>
   </si>
   <si>
@@ -407,111 +407,111 @@
     <t>Benin</t>
   </si>
   <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
-    <t>Brunei Darussalam</t>
+    <t>Côte d’Ivoire</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
   </si>
   <si>
     <t>Myanmar</t>
   </si>
   <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Côte d’Ivoire</t>
-  </si>
-  <si>
     <t>Mozambique</t>
   </si>
   <si>
     <t>Namibia</t>
   </si>
   <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
     <t>Democratic Republic Congo</t>
   </si>
   <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
-    <t>Moldova</t>
-  </si>
-  <si>
     <t>Bolivia</t>
   </si>
   <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
     <t>Fiji</t>
   </si>
   <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
     <t>Jamaica</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
     <t>Guatemala</t>
   </si>
   <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Congo</t>
+    <t>Mali</t>
   </si>
   <si>
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>Mali</t>
+    <t>Honduras</t>
   </si>
   <si>
     <t>Laos</t>
   </si>
   <si>
-    <t>Honduras</t>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gabon</t>
   </si>
   <si>
     <t>North Korea</t>
   </si>
   <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
+    <t>Togo</t>
+  </si>
+  <si>
     <t>Monaco</t>
   </si>
   <si>
-    <t>Togo</t>
-  </si>
-  <si>
     <t>Papua New Guinea</t>
   </si>
   <si>
@@ -524,202 +524,208 @@
     <t>Barbados</t>
   </si>
   <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
     <t>Guinea</t>
   </si>
   <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
     <t>El Salvador</t>
   </si>
   <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
     <t>Greenland</t>
   </si>
   <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Angola</t>
   </si>
   <si>
-    <t>Swaziland</t>
+    <t>Saint Kitts and Nevis</t>
   </si>
   <si>
     <t>Haïti</t>
   </si>
   <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
     <t>Somalia</t>
   </si>
   <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>French Guiana</t>
   </si>
   <si>
-    <t>Lesotho</t>
+    <t>Burundi</t>
   </si>
   <si>
     <t>Faroe Islands</t>
   </si>
   <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Burundi</t>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Chad</t>
   </si>
   <si>
     <t>Seychelles</t>
   </si>
   <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Chad</t>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Samoa</t>
   </si>
   <si>
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
     <t>Eritrea</t>
   </si>
   <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
     <t>Belize</t>
   </si>
   <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
   </si>
   <si>
     <t>Bermuda</t>
   </si>
   <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Republic of South Sudan</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>San Marino</t>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
   </si>
   <si>
     <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Malvinas)</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Curaçao</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
     <t>Palau</t>
   </si>
   <si>
-    <t>Dominica</t>
-  </si>
-  <si>
     <t>Tonga</t>
   </si>
   <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
     <t>Comoros</t>
   </si>
   <si>
-    <t>Virgin Islands (U.S.)</t>
-  </si>
-  <si>
     <t>Federated States of Micronesia</t>
   </si>
   <si>
     <t>Saint Lucia</t>
   </si>
   <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+  </si>
+  <si>
+    <t>Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
     <t>Northern Mariana Islands</t>
   </si>
   <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Vatican City State</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Virgin Islands (British)</t>
-  </si>
-  <si>
-    <t>Svalbard and Jan Mayen</t>
+    <t>Saint Martin (Dutch)</t>
   </si>
   <si>
     <t>Montserrat</t>
@@ -728,43 +734,46 @@
     <t>Saint Helena</t>
   </si>
   <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
     <t>Turks and Caicos Islands</t>
   </si>
   <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
     <t>Mayotte</t>
   </si>
   <si>
-    <t>Cook Islands</t>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Saint Martin (French)</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
   </si>
   <si>
     <t>British Indian Ocean Territory</t>
   </si>
   <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
   </si>
   <si>
     <t>Norfolk Island</t>
   </si>
   <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
     <t>Saint Pierre and Miquelon</t>
   </si>
   <si>
-    <t>Nauru</t>
+    <t>Western Sahara</t>
   </si>
 </sst>
 </file>
@@ -858,7 +867,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I233"/>
+  <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -908,22 +917,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>860012</v>
+        <v>886996</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>841099</v>
+        <v>867611</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>846129</v>
+        <v>8308936</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>555970</v>
+        <v>5698172</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.98</v>
+        <v>9.37</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -937,22 +946,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>726552</v>
+        <v>758974</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>649063</v>
+        <v>654644</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>844047</v>
+        <v>6936127</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>360630</v>
+        <v>2564079</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1.16</v>
+        <v>9.14</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -966,22 +975,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>243792</v>
+        <v>249665</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>213389</v>
+        <v>210490</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>352482</v>
+        <v>2686278</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>93373</v>
+        <v>548783</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1.45</v>
+        <v>10.76</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -995,22 +1004,22 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>237429</v>
+        <v>247903</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>219625</v>
+        <v>217406</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>201943</v>
+        <v>1696623</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>83946</v>
+        <v>642547</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.85</v>
+        <v>6.84</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1024,22 +1033,22 @@
         <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>208210</v>
+        <v>215397</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>189090</v>
+        <v>191808</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>250210</v>
+        <v>1972483</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>75348</v>
+        <v>461072</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1.2</v>
+        <v>9.16</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1053,22 +1062,22 @@
         <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>154304</v>
+        <v>160112</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>137883</v>
+        <v>140430</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>212588</v>
+        <v>1544234</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>69980</v>
+        <v>401083</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1.38</v>
+        <v>9.64</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1082,22 +1091,22 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>144778</v>
+        <v>148500</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>135097</v>
+        <v>137308</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>118780</v>
+        <v>993038</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>35276</v>
+        <v>232426</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.82</v>
+        <v>6.69</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1108,25 +1117,25 @@
         <v>19</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>130786</v>
+        <v>135223</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>118499</v>
+        <v>129669</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>165646</v>
+        <v>499350</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>35023</v>
+        <v>184643</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1.27</v>
+        <v>3.69</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1381</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1134,28 +1143,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>128210</v>
+        <v>133441</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>116720</v>
+        <v>117924</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>166511</v>
+        <v>1377753</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>36124</v>
+        <v>224408</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1.3</v>
+        <v>10.32</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1352</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1163,28 +1172,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>125211</v>
+        <v>132974</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>113751</v>
+        <v>118805</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>182241</v>
+        <v>1295096</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>42937</v>
+        <v>217801</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1.46</v>
+        <v>9.74</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1193</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1198,22 +1207,22 @@
         <v>24</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>123849</v>
+        <v>125585</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>119249</v>
+        <v>110769</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>63308</v>
+        <v>1490947</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>26591</v>
+        <v>256330</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.51</v>
+        <v>11.87</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>675</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1227,22 +1236,22 @@
         <v>14</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>122688</v>
+        <v>125442</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>113361</v>
+        <v>114136</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>147012</v>
+        <v>1116129</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>37834</v>
+        <v>225838</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1.2</v>
+        <v>8.9</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1253,25 +1262,25 @@
         <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>101692</v>
+        <v>103280</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>97947</v>
+        <v>96008</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>105828</v>
+        <v>657790</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>26648</v>
+        <v>165160</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1.04</v>
+        <v>6.37</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>810</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1279,28 +1288,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>100085</v>
+        <v>101994</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>94517</v>
+        <v>98108</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>87295</v>
+        <v>960428</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>24430</v>
+        <v>179077</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.87</v>
+        <v>9.42</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>690</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1314,22 +1323,22 @@
         <v>30</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>77346</v>
+        <v>76842</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>74739</v>
+        <v>73723</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>92339</v>
+        <v>694923</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>31632</v>
+        <v>181809</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1.19</v>
+        <v>9.04</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1343,22 +1352,22 @@
         <v>14</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>74317</v>
+        <v>75370</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>67634</v>
+        <v>67102</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>114391</v>
+        <v>917337</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>21320</v>
+        <v>128750</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>1.54</v>
+        <v>12.17</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1372,22 +1381,22 @@
         <v>30</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>67150</v>
+        <v>67498</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>62799</v>
+        <v>61484</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>62890</v>
+        <v>481742</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>16963</v>
+        <v>101867</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.94</v>
+        <v>7.14</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1398,25 +1407,25 @@
         <v>33</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>60788</v>
+        <v>64141</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>57437</v>
+        <v>59599</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>61977</v>
+        <v>480427</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>18695</v>
+        <v>104427</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1.02</v>
+        <v>7.49</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1430,22 +1439,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>57331</v>
+        <v>59082</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>52083</v>
+        <v>52813</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>91539</v>
+        <v>701913</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>15833</v>
+        <v>95377</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1.6</v>
+        <v>11.88</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1456,25 +1465,25 @@
         <v>35</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>50270</v>
+        <v>53706</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>46494</v>
+        <v>52533</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>72654</v>
+        <v>181493</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>12625</v>
+        <v>65187</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1.45</v>
+        <v>3.38</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>1036</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1485,25 +1494,25 @@
         <v>36</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>49350</v>
+        <v>50319</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>48484</v>
+        <v>45718</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>19326</v>
+        <v>581643</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>7544</v>
+        <v>76686</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.39</v>
+        <v>11.56</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>284</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1517,22 +1526,22 @@
         <v>30</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>48307</v>
+        <v>47864</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>46932</v>
+        <v>46082</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>75672</v>
+        <v>599906</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>25064</v>
+        <v>140417</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1.57</v>
+        <v>12.53</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1546,22 +1555,22 @@
         <v>10</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>46201</v>
+        <v>45692</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>43914</v>
+        <v>43313</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>48288</v>
+        <v>403163</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>11500</v>
+        <v>64482</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1.05</v>
+        <v>8.82</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1575,22 +1584,22 @@
         <v>10</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>41938</v>
+        <v>42729</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>40125</v>
+        <v>40055</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>44891</v>
+        <v>370345</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>12539</v>
+        <v>72912</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1.07</v>
+        <v>8.67</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1604,22 +1613,22 @@
         <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>41378</v>
+        <v>42140</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>37714</v>
+        <v>37727</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>62873</v>
+        <v>480678</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>10387</v>
+        <v>59061</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1.52</v>
+        <v>11.41</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1636,19 +1645,19 @@
         <v>38651</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>37329</v>
+        <v>36916</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>52347</v>
+        <v>398458</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>19187</v>
+        <v>108698</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1.35</v>
+        <v>10.31</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1659,25 +1668,25 @@
         <v>43</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>36661</v>
+        <v>37039</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>35386</v>
+        <v>32945</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>52705</v>
+        <v>329534</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>19952</v>
+        <v>51030</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1.44</v>
+        <v>8.9</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>353</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1688,25 +1697,25 @@
         <v>44</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>35544</v>
+        <v>36726</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>32534</v>
+        <v>34727</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>41665</v>
+        <v>408611</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>8280</v>
+        <v>106638</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1.17</v>
+        <v>11.13</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>599</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1720,22 +1729,22 @@
         <v>14</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>34960</v>
+        <v>35714</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>32140</v>
+        <v>32236</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>56304</v>
+        <v>466165</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>9048</v>
+        <v>56364</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1.61</v>
+        <v>13.05</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1746,25 +1755,25 @@
         <v>46</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>33664</v>
+        <v>34217</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>31518</v>
+        <v>30330</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>30336</v>
+        <v>347574</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>5728</v>
+        <v>45035</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.9</v>
+        <v>10.16</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>536</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1775,25 +1784,25 @@
         <v>47</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>33106</v>
+        <v>34192</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>30090</v>
+        <v>30163</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>45497</v>
+        <v>293229</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>8074</v>
+        <v>51673</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1.37</v>
+        <v>8.58</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>783</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1801,28 +1810,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>33019</v>
+        <v>33875</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>30360</v>
+        <v>31076</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>40962</v>
+        <v>229852</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>8893</v>
+        <v>36546</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1.24</v>
+        <v>6.79</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>567</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1836,22 +1845,22 @@
         <v>14</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>29764</v>
+        <v>30163</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>27580</v>
+        <v>27149</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>39856</v>
+        <v>316791</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>7475</v>
+        <v>42806</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>1.34</v>
+        <v>10.5</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1865,22 +1874,22 @@
         <v>10</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>28945</v>
+        <v>29087</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>27304</v>
+        <v>27073</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>48412</v>
+        <v>437771</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>7463</v>
+        <v>49072</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1.67</v>
+        <v>15.05</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1891,25 +1900,25 @@
         <v>52</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>27513</v>
+        <v>28709</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>26130</v>
+        <v>26962</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>29367</v>
+        <v>226493</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>6497</v>
+        <v>35649</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>1.07</v>
+        <v>7.89</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1923,22 +1932,22 @@
         <v>30</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>27243</v>
+        <v>27362</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>24998</v>
+        <v>24486</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>35516</v>
+        <v>274585</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>5923</v>
+        <v>34886</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1.3</v>
+        <v>10.04</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1952,22 +1961,22 @@
         <v>10</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>26486</v>
+        <v>27109</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>24286</v>
+        <v>24257</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>45655</v>
+        <v>400872</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>6703</v>
+        <v>39309</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1.72</v>
+        <v>14.79</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1981,22 +1990,22 @@
         <v>14</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>26105</v>
+        <v>27065</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>23532</v>
+        <v>23681</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>33843</v>
+        <v>257967</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>6824</v>
+        <v>39466</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1.3</v>
+        <v>9.53</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -2007,25 +2016,25 @@
         <v>56</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>25148</v>
+        <v>25733</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>24169</v>
+        <v>23170</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>22471</v>
+        <v>284974</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>5443</v>
+        <v>36903</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.89</v>
+        <v>11.07</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>396</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2036,25 +2045,25 @@
         <v>57</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>25139</v>
+        <v>25466</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>23346</v>
+        <v>24249</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>35963</v>
+        <v>187680</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>6097</v>
+        <v>35087</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>1.43</v>
+        <v>7.37</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>756</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2065,25 +2074,25 @@
         <v>58</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>21129</v>
+        <v>23120</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>18972</v>
+        <v>22233</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>31916</v>
+        <v>80553</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>4788</v>
+        <v>36998</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>1.51</v>
+        <v>3.48</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>628</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2094,25 +2103,25 @@
         <v>59</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>19711</v>
+        <v>21570</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>17833</v>
+        <v>18621</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>25300</v>
+        <v>240907</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>4761</v>
+        <v>25851</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>1.28</v>
+        <v>11.17</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>633</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2123,25 +2132,25 @@
         <v>60</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>19638</v>
+        <v>20618</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>18652</v>
+        <v>19330</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>21241</v>
+        <v>164244</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>4699</v>
+        <v>27348</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>1.08</v>
+        <v>7.97</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2155,22 +2164,22 @@
         <v>24</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>19357</v>
+        <v>19657</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>18772</v>
+        <v>17231</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>11190</v>
+        <v>193502</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>5932</v>
+        <v>25364</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.58</v>
+        <v>9.84</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>323</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2181,25 +2190,25 @@
         <v>62</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>18381</v>
+        <v>19565</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>17636</v>
+        <v>18300</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>28051</v>
+        <v>141141</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>5919</v>
+        <v>24073</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>1.53</v>
+        <v>7.21</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>269</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2210,25 +2219,25 @@
         <v>63</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>17648</v>
+        <v>18346</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>16796</v>
+        <v>17469</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>17727</v>
+        <v>188654</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>3983</v>
+        <v>28237</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>1</v>
+        <v>10.28</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>364</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2239,25 +2248,25 @@
         <v>64</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>17281</v>
+        <v>18156</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>16254</v>
+        <v>16869</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>13860</v>
+        <v>108339</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>2961</v>
+        <v>16857</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.8</v>
+        <v>5.97</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2268,25 +2277,25 @@
         <v>65</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>17130</v>
+        <v>18063</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>16023</v>
+        <v>16486</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>16599</v>
+        <v>124431</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>2753</v>
+        <v>18081</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.97</v>
+        <v>6.89</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2297,25 +2306,25 @@
         <v>66</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>16998</v>
+        <v>17768</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>16678</v>
+        <v>15945</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>13060</v>
+        <v>129199</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>5040</v>
+        <v>28228</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.77</v>
+        <v>7.27</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>155</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2326,25 +2335,25 @@
         <v>67</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>16745</v>
+        <v>17693</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>15834</v>
+        <v>17290</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>15943</v>
+        <v>107623</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>4599</v>
+        <v>34346</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>0.95</v>
+        <v>6.08</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>260</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2355,25 +2364,25 @@
         <v>68</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>14261</v>
+        <v>14899</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>13403</v>
+        <v>13780</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>16791</v>
+        <v>131760</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>2991</v>
+        <v>19008</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>1.18</v>
+        <v>8.84</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2387,22 +2396,22 @@
         <v>30</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>12968</v>
+        <v>13464</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>12283</v>
+        <v>12295</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>20301</v>
+        <v>168911</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>3456</v>
+        <v>22161</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>1.57</v>
+        <v>12.55</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2416,22 +2425,22 @@
         <v>10</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>12648</v>
+        <v>13356</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>11984</v>
+        <v>12374</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>18323</v>
+        <v>145334</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>6170</v>
+        <v>30385</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>1.45</v>
+        <v>10.88</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2442,25 +2451,25 @@
         <v>71</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>11021</v>
+        <v>11582</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>10483</v>
+        <v>10834</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>9613</v>
+        <v>82450</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>2746</v>
+        <v>20950</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0.87</v>
+        <v>7.12</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2471,25 +2480,25 @@
         <v>72</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>9785</v>
+        <v>10149</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>9581</v>
+        <v>9585</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>8539</v>
+        <v>64724</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>2323</v>
+        <v>11378</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0.87</v>
+        <v>6.38</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>213</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2500,25 +2509,25 @@
         <v>73</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>9598</v>
+        <v>10083</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>9060</v>
+        <v>9371</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>10327</v>
+        <v>73950</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1730</v>
+        <v>10766</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>1.08</v>
+        <v>7.33</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>307</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2529,25 +2538,25 @@
         <v>74</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>9588</v>
+        <v>9955</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>9109</v>
+        <v>9198</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>8387</v>
+        <v>74743</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>1857</v>
+        <v>10955</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0.87</v>
+        <v>7.51</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>331</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2558,25 +2567,25 @@
         <v>75</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>9481</v>
+        <v>9912</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>8960</v>
+        <v>9625</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>9734</v>
+        <v>63677</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>1839</v>
+        <v>13940</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>1.03</v>
+        <v>6.42</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>337</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2587,25 +2596,25 @@
         <v>76</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>9400</v>
+        <v>9338</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>8939</v>
+        <v>8793</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>7943</v>
+        <v>63486</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1774</v>
+        <v>10295</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.85</v>
+        <v>6.8</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2616,25 +2625,25 @@
         <v>77</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>8876</v>
+        <v>9001</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>8629</v>
+        <v>8643</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>7262</v>
+        <v>73929</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>1966</v>
+        <v>16988</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.82</v>
+        <v>8.21</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2645,25 +2654,25 @@
         <v>78</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>8287</v>
+        <v>8686</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>7782</v>
+        <v>8007</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>10126</v>
+        <v>76250</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1730</v>
+        <v>9082</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>1.22</v>
+        <v>8.78</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2674,25 +2683,25 @@
         <v>79</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>8071</v>
+        <v>8100</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>7840</v>
+        <v>7381</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>9614</v>
+        <v>46740</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>2378</v>
+        <v>8972</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>1.19</v>
+        <v>5.77</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>219</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2703,25 +2712,25 @@
         <v>80</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>7420</v>
+        <v>7975</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>6814</v>
+        <v>7670</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>6558</v>
+        <v>74157</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>1242</v>
+        <v>15414</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.88</v>
+        <v>9.3</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2732,25 +2741,25 @@
         <v>81</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>7072</v>
+        <v>7891</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>6679</v>
+        <v>7394</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>5801</v>
+        <v>44837</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1087</v>
+        <v>6878</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.82</v>
+        <v>5.68</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2764,22 +2773,22 @@
         <v>10</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>6467</v>
+        <v>7079</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>6084</v>
+        <v>6602</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>6050</v>
+        <v>47580</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1152</v>
+        <v>7692</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.94</v>
+        <v>6.72</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2793,22 +2802,22 @@
         <v>30</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>6209</v>
+        <v>6367</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>5803</v>
+        <v>5757</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>11242</v>
+        <v>90689</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1838</v>
+        <v>9122</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>1.81</v>
+        <v>14.24</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2819,25 +2828,25 @@
         <v>84</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>5980</v>
+        <v>6279</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>5740</v>
+        <v>5986</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>4815</v>
+        <v>35688</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1124</v>
+        <v>6675</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.81</v>
+        <v>5.68</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2851,22 +2860,22 @@
         <v>10</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>5779</v>
+        <v>6196</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>5585</v>
+        <v>5904</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>3821</v>
+        <v>34822</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>965</v>
+        <v>7554</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.66</v>
+        <v>5.62</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2877,25 +2886,25 @@
         <v>86</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>5467</v>
+        <v>5637</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>5224</v>
+        <v>5300</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>5010</v>
+        <v>47329</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1095</v>
+        <v>6062</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0.92</v>
+        <v>8.4</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>191</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2906,25 +2915,25 @@
         <v>87</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>5393</v>
+        <v>5547</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>5171</v>
+        <v>4923</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>6470</v>
+        <v>47935</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>1107</v>
+        <v>6943</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>1.2</v>
+        <v>8.64</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>265</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2935,25 +2944,25 @@
         <v>88</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>5249</v>
+        <v>5431</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>4819</v>
+        <v>5050</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>6105</v>
+        <v>43485</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1056</v>
+        <v>7690</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>1.16</v>
+        <v>8.01</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>310</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2964,25 +2973,25 @@
         <v>89</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>4662</v>
+        <v>4697</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>4281</v>
+        <v>4268</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>6423</v>
+        <v>51407</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>784</v>
+        <v>5755</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>1.38</v>
+        <v>10.94</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>264</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2996,22 +3005,22 @@
         <v>14</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>4573</v>
+        <v>4660</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>4234</v>
+        <v>4139</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>6452</v>
+        <v>48655</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>965</v>
+        <v>4950</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>1.41</v>
+        <v>10.44</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -3022,25 +3031,25 @@
         <v>91</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>4520</v>
+        <v>4650</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>4198</v>
+        <v>4112</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>6305</v>
+        <v>49599</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1046</v>
+        <v>5005</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>1.39</v>
+        <v>10.67</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>346</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3054,22 +3063,22 @@
         <v>10</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>3910</v>
+        <v>4104</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>3704</v>
+        <v>3748</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>3996</v>
+        <v>32651</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>555</v>
+        <v>3327</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>1.02</v>
+        <v>7.96</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3083,22 +3092,22 @@
         <v>30</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>3577</v>
+        <v>3605</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>3359</v>
+        <v>3241</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>4701</v>
+        <v>38960</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>722</v>
+        <v>3632</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>1.31</v>
+        <v>10.81</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3112,22 +3121,22 @@
         <v>10</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>3521</v>
+        <v>3515</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>3405</v>
+        <v>3251</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>5490</v>
+        <v>29045</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>539</v>
+        <v>3351</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>1.56</v>
+        <v>8.26</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3141,22 +3150,22 @@
         <v>10</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>3355</v>
+        <v>3472</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>3160</v>
+        <v>3346</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>3128</v>
+        <v>48900</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>579</v>
+        <v>3587</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.93</v>
+        <v>14.08</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>175</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3167,25 +3176,25 @@
         <v>96</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>3041</v>
+        <v>3346</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>2842</v>
+        <v>3277</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>3162</v>
+        <v>15999</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>613</v>
+        <v>9599</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>1.04</v>
+        <v>4.78</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>209</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3196,25 +3205,25 @@
         <v>97</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>3037</v>
+        <v>3312</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>2932</v>
+        <v>3155</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>2683</v>
+        <v>22642</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>590</v>
+        <v>3705</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.88</v>
+        <v>6.84</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3225,25 +3234,25 @@
         <v>98</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>3036</v>
+        <v>3105</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>2978</v>
+        <v>2834</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>1917</v>
+        <v>29130</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1276</v>
+        <v>4293</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>0.63</v>
+        <v>9.38</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>106</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3254,25 +3263,25 @@
         <v>99</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>2905</v>
+        <v>3010</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>2797</v>
+        <v>2931</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>3985</v>
+        <v>16045</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>526</v>
+        <v>2058</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>1.37</v>
+        <v>5.33</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>195</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3283,25 +3292,25 @@
         <v>100</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>2787</v>
+        <v>2946</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>2575</v>
+        <v>2683</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>3825</v>
+        <v>10707</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>502</v>
+        <v>1478</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>1.37</v>
+        <v>3.63</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3312,25 +3321,25 @@
         <v>101</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>2681</v>
+        <v>2926</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>2616</v>
+        <v>2763</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>2040</v>
+        <v>31380</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>335</v>
+        <v>2894</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.76</v>
+        <v>10.72</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3341,25 +3350,25 @@
         <v>102</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>2661</v>
+        <v>2899</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>2548</v>
+        <v>2584</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>2198</v>
+        <v>32641</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>501</v>
+        <v>2969</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>0.83</v>
+        <v>11.26</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>167</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3370,25 +3379,25 @@
         <v>103</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>2658</v>
+        <v>2766</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>2522</v>
+        <v>2552</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>2550</v>
+        <v>21223</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>475</v>
+        <v>3149</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>0.96</v>
+        <v>7.67</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3399,25 +3408,25 @@
         <v>104</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>2407</v>
+        <v>2665</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>2238</v>
+        <v>2523</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>2521</v>
+        <v>20892</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>289</v>
+        <v>3825</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>1.05</v>
+        <v>7.84</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>222</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3428,25 +3437,25 @@
         <v>105</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>2359</v>
+        <v>2570</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>2174</v>
+        <v>2336</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>1323</v>
+        <v>18745</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>209</v>
+        <v>1962</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0.56</v>
+        <v>7.29</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>200</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3457,25 +3466,25 @@
         <v>106</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>2082</v>
+        <v>2293</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1930</v>
+        <v>2050</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>3161</v>
+        <v>24356</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>349</v>
+        <v>2183</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>1.52</v>
+        <v>10.62</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>370</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3486,25 +3495,25 @@
         <v>107</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>2028</v>
+        <v>2175</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1836</v>
+        <v>2030</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>3454</v>
+        <v>11266</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>352</v>
+        <v>1129</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>1.7</v>
+        <v>5.18</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>219</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3515,25 +3524,25 @@
         <v>108</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>1986</v>
+        <v>2105</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1894</v>
+        <v>1908</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>1405</v>
+        <v>24471</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>185</v>
+        <v>2269</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.71</v>
+        <v>11.63</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>128</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3544,25 +3553,25 @@
         <v>109</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>1829</v>
+        <v>1978</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1767</v>
+        <v>1900</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>1757</v>
+        <v>11821</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>399</v>
+        <v>2425</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.96</v>
+        <v>5.98</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3573,25 +3582,25 @@
         <v>110</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>1704</v>
+        <v>1783</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1617</v>
+        <v>1647</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>1703</v>
+        <v>13484</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>202</v>
+        <v>1276</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>1</v>
+        <v>7.56</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>119</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3602,25 +3611,25 @@
         <v>111</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>1669</v>
+        <v>1733</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1560</v>
+        <v>1624</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>1552</v>
+        <v>13650</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>242</v>
+        <v>1268</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.93</v>
+        <v>7.88</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>214</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3631,25 +3640,25 @@
         <v>112</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>1657</v>
+        <v>1711</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1599</v>
+        <v>1594</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>2224</v>
+        <v>8334</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>704</v>
+        <v>882</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>1.34</v>
+        <v>4.87</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>98</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3663,22 +3672,22 @@
         <v>30</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>1562</v>
+        <v>1642</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1497</v>
+        <v>1581</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>2238</v>
+        <v>17335</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>438</v>
+        <v>2793</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>1.43</v>
+        <v>10.56</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3692,22 +3701,22 @@
         <v>30</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>1551</v>
+        <v>1583</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1452</v>
+        <v>1502</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>1267</v>
+        <v>19181</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>156</v>
+        <v>2400</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.82</v>
+        <v>12.12</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3718,25 +3727,25 @@
         <v>115</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>1542</v>
+        <v>1560</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1449</v>
+        <v>1435</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>1183</v>
+        <v>12641</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>194</v>
+        <v>1279</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.77</v>
+        <v>8.1</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>254</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3747,25 +3756,25 @@
         <v>116</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>1455</v>
+        <v>1554</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>1304</v>
+        <v>1280</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>1227</v>
+        <v>11210</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>227</v>
+        <v>1545</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.84</v>
+        <v>7.21</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3779,22 +3788,22 @@
         <v>14</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>1281</v>
+        <v>1388</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>1117</v>
+        <v>1149</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>1639</v>
+        <v>12887</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>232</v>
+        <v>1248</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>1.28</v>
+        <v>9.28</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3805,25 +3814,25 @@
         <v>118</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>1277</v>
+        <v>1312</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>1164</v>
+        <v>1233</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>1289</v>
+        <v>8527</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>191</v>
+        <v>1455</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>1.01</v>
+        <v>6.5</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>166</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3834,25 +3843,25 @@
         <v>119</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>1243</v>
+        <v>1292</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>1170</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>1142</v>
+        <v>9985</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>200</v>
+        <v>1214</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>0.92</v>
+        <v>7.73</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>214</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3863,25 +3872,25 @@
         <v>120</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>1115</v>
+        <v>1196</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>1050</v>
+        <v>1104</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>1848</v>
+        <v>10921</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>121</v>
+        <v>708</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>1.66</v>
+        <v>9.13</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3892,25 +3901,25 @@
         <v>121</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>1055</v>
+        <v>1104</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>1017</v>
+        <v>1053</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>1059</v>
+        <v>9972</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>160</v>
+        <v>733</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>1</v>
+        <v>9.03</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3921,25 +3930,25 @@
         <v>122</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>1046</v>
+        <v>1095</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>969</v>
+        <v>1007</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>836</v>
+        <v>6670</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>114</v>
+        <v>685</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>0.8</v>
+        <v>6.09</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3953,22 +3962,22 @@
         <v>30</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>1012</v>
+        <v>1081</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>976</v>
+        <v>1018</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>845</v>
+        <v>7196</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>153</v>
+        <v>827</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>0.83</v>
+        <v>6.66</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3979,25 +3988,25 @@
         <v>124</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>999</v>
+        <v>1076</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>923</v>
+        <v>975</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>1153</v>
+        <v>9952</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>193</v>
+        <v>558</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>1.15</v>
+        <v>9.25</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>107</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -4008,25 +4017,25 @@
         <v>125</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>997</v>
+        <v>1058</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>933</v>
+        <v>947</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>1052</v>
+        <v>9901</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>168</v>
+        <v>952</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>1.06</v>
+        <v>9.36</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4037,25 +4046,25 @@
         <v>126</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>996</v>
+        <v>1046</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>915</v>
+        <v>952</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>1117</v>
+        <v>8863</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>86</v>
+        <v>1096</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>1.12</v>
+        <v>8.47</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>253</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4066,25 +4075,25 @@
         <v>127</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>985</v>
+        <v>1032</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>860</v>
+        <v>7593</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>121</v>
+        <v>773</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>0.87</v>
+        <v>7.36</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4095,25 +4104,25 @@
         <v>128</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>957</v>
+        <v>974</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>897</v>
+        <v>913</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>1373</v>
+        <v>10525</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>182</v>
+        <v>913</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>1.43</v>
+        <v>10.81</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4124,25 +4133,25 @@
         <v>129</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>900</v>
+        <v>958</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>875</v>
+        <v>918</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>732</v>
+        <v>6463</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>126</v>
+        <v>887</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>0.81</v>
+        <v>6.75</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4153,25 +4162,25 @@
         <v>130</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>897</v>
+        <v>956</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>827</v>
+        <v>795</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>1370</v>
+        <v>9540</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>136</v>
+        <v>1081</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>1.53</v>
+        <v>9.98</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4182,25 +4191,25 @@
         <v>131</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>867</v>
+        <v>952</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>796</v>
+        <v>863</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>1065</v>
+        <v>7877</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>161</v>
+        <v>762</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>1.23</v>
+        <v>8.27</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4211,25 +4220,25 @@
         <v>132</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>857</v>
+        <v>919</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>810</v>
+        <v>869</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>802</v>
+        <v>5681</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>92</v>
+        <v>633</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>0.94</v>
+        <v>6.18</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>95</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4240,25 +4249,25 @@
         <v>133</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>849</v>
+        <v>903</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>792</v>
+        <v>857</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>700</v>
+        <v>6715</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>110</v>
+        <v>860</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>0.82</v>
+        <v>7.44</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>117</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4269,25 +4278,25 @@
         <v>134</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>842</v>
+        <v>899</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>803</v>
+        <v>839</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>711</v>
+        <v>5931</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>114</v>
+        <v>743</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>0.84</v>
+        <v>6.6</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4298,25 +4307,25 @@
         <v>135</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>822</v>
+        <v>892</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>774</v>
+        <v>831</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>591</v>
+        <v>6329</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>83</v>
+        <v>426</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>0.72</v>
+        <v>7.1</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4327,25 +4336,25 @@
         <v>136</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>814</v>
+        <v>834</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>1111</v>
+        <v>10200</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>132</v>
+        <v>764</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>1.36</v>
+        <v>12.23</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4356,25 +4365,25 @@
         <v>137</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>675</v>
+        <v>737</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>571</v>
+        <v>5090</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>78</v>
+        <v>476</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>0.85</v>
+        <v>6.91</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4385,25 +4394,25 @@
         <v>138</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>664</v>
+        <v>724</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>594</v>
+        <v>3680</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>72</v>
+        <v>364</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>0.89</v>
+        <v>5.08</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>78</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4414,25 +4423,25 @@
         <v>139</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>656</v>
+        <v>687</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>592</v>
+        <v>628</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>616</v>
+        <v>6654</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>101</v>
+        <v>398</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>0.94</v>
+        <v>9.69</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4443,25 +4452,25 @@
         <v>140</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>633</v>
+        <v>676</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="F124" s="0" t="n">
+        <v>4892</v>
+      </c>
+      <c r="G124" s="0" t="n">
         <v>578</v>
       </c>
-      <c r="G124" s="0" t="n">
-        <v>75</v>
-      </c>
       <c r="H124" s="0" t="n">
-        <v>0.91</v>
+        <v>7.24</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4472,25 +4481,25 @@
         <v>141</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>627</v>
+        <v>664</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>574</v>
+        <v>642</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>542</v>
+        <v>6524</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>88</v>
+        <v>584</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>0.86</v>
+        <v>9.83</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4501,25 +4510,25 @@
         <v>142</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>403</v>
+        <v>4811</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>54</v>
+        <v>486</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>0.68</v>
+        <v>7.26</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4530,25 +4539,25 @@
         <v>143</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>708</v>
+        <v>4277</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>65</v>
+        <v>313</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>1.2</v>
+        <v>6.93</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4559,25 +4568,25 @@
         <v>144</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>562</v>
+        <v>586</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>732</v>
+        <v>3364</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>152</v>
+        <v>340</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>1.3</v>
+        <v>5.74</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4588,25 +4597,25 @@
         <v>145</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>604</v>
+        <v>5445</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>40</v>
+        <v>655</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>1.1</v>
+        <v>9.47</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4617,25 +4626,25 @@
         <v>146</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>382</v>
+        <v>4928</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>0.7</v>
+        <v>8.77</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4646,25 +4655,25 @@
         <v>147</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>553</v>
+        <v>4070</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>152</v>
+        <v>346</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>1.05</v>
+        <v>7.33</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4675,25 +4684,25 @@
         <v>148</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>564</v>
+        <v>4140</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>49</v>
+        <v>520</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>1.1</v>
+        <v>7.6</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4704,25 +4713,25 @@
         <v>149</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D133" s="0" t="n">
+        <v>535</v>
+      </c>
+      <c r="E133" s="0" t="n">
         <v>511</v>
       </c>
-      <c r="E133" s="0" t="n">
-        <v>491</v>
-      </c>
       <c r="F133" s="0" t="n">
-        <v>725</v>
+        <v>4629</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>111</v>
+        <v>653</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>1.42</v>
+        <v>8.65</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4733,25 +4742,25 @@
         <v>150</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>509</v>
+        <v>4278</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>1.09</v>
+        <v>8.84</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4762,25 +4771,25 @@
         <v>151</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>567</v>
+        <v>4352</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>1.22</v>
+        <v>8.99</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>103</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4791,25 +4800,25 @@
         <v>152</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>526</v>
+        <v>5359</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>35</v>
+        <v>312</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>1.14</v>
+        <v>11.1</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4820,25 +4829,25 @@
         <v>153</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>411</v>
+        <v>3592</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>0.95</v>
+        <v>7.96</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4849,25 +4858,25 @@
         <v>154</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>400</v>
+        <v>2668</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>1.06</v>
+        <v>7.02</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4878,25 +4887,25 @@
         <v>155</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>335</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>334</v>
+        <v>3837</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>0.94</v>
+        <v>10.43</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4907,25 +4916,25 @@
         <v>156</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>878</v>
+        <v>2686</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>2.57</v>
+        <v>7.48</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4939,22 +4948,22 @@
         <v>10</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>191</v>
+        <v>1859</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>0.6</v>
+        <v>5.58</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4965,25 +4974,25 @@
         <v>158</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>681</v>
+        <v>2065</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>2.13</v>
+        <v>6.33</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>145</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4994,25 +5003,25 @@
         <v>159</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>423</v>
+        <v>3270</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>1.39</v>
+        <v>10.25</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5023,25 +5032,25 @@
         <v>160</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>344</v>
+        <v>2694</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>1.14</v>
+        <v>8.72</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>63</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5055,22 +5064,22 @@
         <v>10</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>203</v>
+        <v>1533</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>44</v>
+        <v>300</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>0.67</v>
+        <v>4.99</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5081,25 +5090,25 @@
         <v>162</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>307</v>
+        <v>2751</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>1.05</v>
+        <v>9.2</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5110,25 +5119,25 @@
         <v>163</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>1037</v>
+        <v>1850</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>57</v>
+        <v>224</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>3.61</v>
+        <v>6.25</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5139,25 +5148,25 @@
         <v>164</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>230</v>
+        <v>6071</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>0.83</v>
+        <v>20.93</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>63</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5168,25 +5177,25 @@
         <v>165</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>513</v>
+        <v>2891</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>1.86</v>
+        <v>10.29</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5200,22 +5209,22 @@
         <v>10</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>313</v>
+        <v>2674</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>1.19</v>
+        <v>9.76</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5226,25 +5235,25 @@
         <v>167</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>224</v>
+        <v>1763</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>0.97</v>
+        <v>6.81</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5255,25 +5264,25 @@
         <v>168</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>167</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>251</v>
+        <v>1464</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>1.26</v>
+        <v>6.97</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5284,25 +5293,25 @@
         <v>169</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>174</v>
+        <v>1258</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>0.92</v>
+        <v>6.59</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5313,25 +5322,25 @@
         <v>170</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>147</v>
+        <v>1312</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>0.78</v>
+        <v>6.87</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5342,25 +5351,25 @@
         <v>171</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>148</v>
+        <v>1149</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>0.83</v>
+        <v>6.05</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5371,25 +5380,25 @@
         <v>172</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>234</v>
+        <v>1656</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>1.36</v>
+        <v>9.1</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>87</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5400,25 +5409,25 @@
         <v>173</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>195</v>
+        <v>1784</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>1.13</v>
+        <v>10.19</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5432,22 +5441,22 @@
         <v>14</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>220</v>
+        <v>1481</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>1.4</v>
+        <v>8.46</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5458,25 +5467,25 @@
         <v>175</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>96</v>
+        <v>1192</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>0.62</v>
+        <v>6.97</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5487,25 +5496,25 @@
         <v>176</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>99</v>
+        <v>920</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>0.65</v>
+        <v>5.38</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5516,25 +5525,25 @@
         <v>177</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>195</v>
+        <v>988</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>1.28</v>
+        <v>5.92</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5545,25 +5554,25 @@
         <v>178</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>73</v>
+        <v>1349</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>0.48</v>
+        <v>8.48</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>28</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5574,25 +5583,25 @@
         <v>179</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D163" s="0" t="n">
         <v>144</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>95</v>
+        <v>867</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>0.66</v>
+        <v>6.02</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5603,25 +5612,25 @@
         <v>180</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>104</v>
+        <v>664</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>0.72</v>
+        <v>4.74</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5632,25 +5641,25 @@
         <v>181</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>177</v>
+        <v>781</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>1.32</v>
+        <v>5.74</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5661,25 +5670,25 @@
         <v>182</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>65</v>
+        <v>1103</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>0.49</v>
+        <v>8.17</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5690,25 +5699,25 @@
         <v>183</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>212</v>
+        <v>1404</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>1.63</v>
+        <v>10.56</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5719,25 +5728,25 @@
         <v>184</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>104</v>
+        <v>1100</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>0.83</v>
+        <v>8.94</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5748,25 +5757,25 @@
         <v>185</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>111</v>
+        <v>1420</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>0.89</v>
+        <v>11.54</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5777,25 +5786,25 @@
         <v>186</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>176</v>
+        <v>1355</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>1.5</v>
+        <v>11.39</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5806,25 +5815,25 @@
         <v>187</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>141</v>
+        <v>1193</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>1.27</v>
+        <v>10.11</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5835,25 +5844,25 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D172" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="E172" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="E172" s="0" t="n">
-        <v>109</v>
-      </c>
       <c r="F172" s="0" t="n">
-        <v>92</v>
+        <v>667</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>0.83</v>
+        <v>5.65</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5864,25 +5873,25 @@
         <v>189</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D173" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E173" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="E173" s="0" t="n">
-        <v>99</v>
-      </c>
       <c r="F173" s="0" t="n">
-        <v>86</v>
+        <v>626</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>0.82</v>
+        <v>5.69</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5893,25 +5902,25 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D174" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="E174" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E174" s="0" t="n">
-        <v>82</v>
-      </c>
       <c r="F174" s="0" t="n">
-        <v>59</v>
+        <v>1187</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>0.64</v>
+        <v>11.3</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5925,22 +5934,22 @@
         <v>10</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>76</v>
+        <v>666</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>0.83</v>
+        <v>7.16</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5951,25 +5960,25 @@
         <v>192</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>158</v>
+        <v>1184</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>1.76</v>
+        <v>13.01</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5980,25 +5989,25 @@
         <v>193</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E177" s="0" t="n">
         <v>79</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>38</v>
+        <v>444</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>0.45</v>
+        <v>4.99</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -6009,25 +6018,25 @@
         <v>194</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>83</v>
+        <v>355</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>1.01</v>
+        <v>4.13</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6038,25 +6047,25 @@
         <v>195</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>118</v>
+        <v>396</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>1.48</v>
+        <v>4.66</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6067,25 +6076,25 @@
         <v>196</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>0.71</v>
+        <v>4.89</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6096,25 +6105,25 @@
         <v>197</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>125</v>
+        <v>665</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>1.6</v>
+        <v>8.42</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6125,25 +6134,25 @@
         <v>198</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>50</v>
+        <v>657</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>0.66</v>
+        <v>8.53</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6154,25 +6163,25 @@
         <v>199</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>88</v>
+        <v>427</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>1.17</v>
+        <v>5.77</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6183,25 +6192,25 @@
         <v>200</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>45</v>
+        <v>925</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>0.62</v>
+        <v>12.5</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6212,25 +6221,25 @@
         <v>201</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>122</v>
+        <v>549</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>1.69</v>
+        <v>7.52</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6241,25 +6250,25 @@
         <v>202</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>62</v>
+        <v>656</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>0.89</v>
+        <v>9.11</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6270,7 +6279,7 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>69</v>
@@ -6279,16 +6288,16 @@
         <v>69</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>117</v>
+        <v>523</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>1.7</v>
+        <v>7.58</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6299,25 +6308,25 @@
         <v>204</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>39</v>
+        <v>689</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>0.58</v>
+        <v>10.6</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6328,25 +6337,25 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>80</v>
+        <v>549</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>1.25</v>
+        <v>8.85</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6357,25 +6366,25 @@
         <v>206</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D190" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="G190" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H190" s="0" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="I190" s="0" t="n">
         <v>64</v>
-      </c>
-      <c r="E190" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="F190" s="0" t="n">
-        <v>108</v>
-      </c>
-      <c r="G190" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="H190" s="0" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="I190" s="0" t="n">
-        <v>49</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6386,25 +6395,25 @@
         <v>207</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>35</v>
+        <v>330</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>0.56</v>
+        <v>6.11</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6415,25 +6424,25 @@
         <v>208</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>37</v>
+        <v>681</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>0.63</v>
+        <v>12.61</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>59</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6444,25 +6453,25 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>74</v>
+        <v>382</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>1.35</v>
+        <v>7.21</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6473,25 +6482,25 @@
         <v>210</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>45</v>
+        <v>419</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>0.85</v>
+        <v>8.73</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6502,25 +6511,25 @@
         <v>211</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>27</v>
+        <v>528</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>0.53</v>
+        <v>11.23</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6531,25 +6540,25 @@
         <v>212</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>1.6</v>
+        <v>5.48</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6560,25 +6569,25 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D197" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E197" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E197" s="0" t="n">
-        <v>36</v>
-      </c>
       <c r="F197" s="0" t="n">
-        <v>31</v>
+        <v>339</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>0.82</v>
+        <v>8.48</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6589,25 +6598,25 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>68</v>
+        <v>411</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>1.79</v>
+        <v>10.28</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6618,25 +6627,25 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D199" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E199" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="E199" s="0" t="n">
-        <v>31</v>
-      </c>
       <c r="F199" s="0" t="n">
-        <v>25</v>
+        <v>361</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>0.69</v>
+        <v>9.26</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6647,25 +6656,25 @@
         <v>216</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>1.16</v>
+        <v>6.89</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6676,25 +6685,25 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>31</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>2.39</v>
+        <v>7.74</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6705,25 +6714,25 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E202" s="0" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6734,25 +6743,25 @@
         <v>219</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D203" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E203" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E203" s="0" t="n">
-        <v>28</v>
-      </c>
       <c r="F203" s="0" t="n">
-        <v>28</v>
+        <v>269</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>0.97</v>
+        <v>8.97</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6763,25 +6772,25 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>29</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>1.17</v>
+        <v>5.62</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6792,25 +6801,25 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>0.82</v>
+        <v>7.38</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6821,25 +6830,25 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E206" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>1.04</v>
+        <v>7.75</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6850,25 +6859,25 @@
         <v>223</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>1.05</v>
+        <v>6.77</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6879,25 +6888,25 @@
         <v>224</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>1.05</v>
+        <v>6.46</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6908,25 +6917,25 @@
         <v>225</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E209" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>46</v>
+        <v>935</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>2.42</v>
+        <v>44.52</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6937,25 +6946,25 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>0.41</v>
+        <v>4.93</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6966,25 +6975,25 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>0.15</v>
+        <v>3.38</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6995,25 +7004,25 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D212" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E212" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E212" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="F212" s="0" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>0.08</v>
+        <v>4.85</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -7024,25 +7033,25 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>1.67</v>
+        <v>27.5</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7059,19 +7068,19 @@
         <v>12</v>
       </c>
       <c r="E214" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>1.17</v>
+        <v>4.33</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7082,25 +7091,25 @@
         <v>231</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E215" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>1.09</v>
+        <v>3.91</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7111,25 +7120,25 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E216" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>0.09</v>
+        <v>11.36</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7140,25 +7149,25 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7178,16 +7187,16 @@
         <v>10</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>0.4</v>
+        <v>7.1</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7198,25 +7207,25 @@
         <v>235</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D219" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E219" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E219" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="F219" s="0" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G219" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>0.56</v>
+        <v>3.4</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7227,25 +7236,25 @@
         <v>236</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E220" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G220" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>1.56</v>
+        <v>3.56</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7256,7 +7265,7 @@
         <v>237</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>9</v>
@@ -7265,16 +7274,16 @@
         <v>8</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>0.22</v>
+        <v>2.78</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7285,25 +7294,25 @@
         <v>238</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E222" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="G222" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>0.13</v>
+        <v>14.88</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7314,25 +7323,25 @@
         <v>239</v>
       </c>
       <c r="C223" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F223" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G223" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H223" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I223" s="0" t="n">
         <v>28</v>
-      </c>
-      <c r="D223" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E223" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F223" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="G223" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H223" s="0" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="I223" s="0" t="n">
-        <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
@@ -7343,25 +7352,25 @@
         <v>240</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D224" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E224" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F224" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G224" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E224" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F224" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G224" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H224" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" s="0" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="225">
@@ -7372,7 +7381,7 @@
         <v>241</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>4</v>
@@ -7381,16 +7390,16 @@
         <v>4</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G225" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
@@ -7401,25 +7410,25 @@
         <v>242</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D226" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E226" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G226" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
@@ -7430,25 +7439,25 @@
         <v>243</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D227" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E227" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G227" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H227" s="0" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="I227" s="0" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="228">
@@ -7462,19 +7471,19 @@
         <v>14</v>
       </c>
       <c r="D228" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E228" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F228" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="E228" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F228" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="G228" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H228" s="0" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="I228" s="0" t="n">
         <v>3</v>
@@ -7488,7 +7497,7 @@
         <v>245</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>2</v>
@@ -7497,16 +7506,16 @@
         <v>2</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G229" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H229" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I229" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="230">
@@ -7517,7 +7526,7 @@
         <v>246</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D230" s="0" t="n">
         <v>2</v>
@@ -7526,16 +7535,16 @@
         <v>2</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="G230" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H230" s="0" t="n">
-        <v>0</v>
+        <v>278.5</v>
       </c>
       <c r="I230" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="231">
@@ -7546,7 +7555,7 @@
         <v>247</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>1</v>
@@ -7555,16 +7564,16 @@
         <v>0</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G231" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H231" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="232">
@@ -7575,25 +7584,25 @@
         <v>248</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D232" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E232" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="F232" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="G232" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H232" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232" s="0" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="233">
@@ -7604,7 +7613,7 @@
         <v>249</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D233" s="0" t="n">
         <v>1</v>
@@ -7622,7 +7631,94 @@
         <v>0</v>
       </c>
       <c r="I233" s="0" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="234">
+      <c r="A234" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D234" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" s="0" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="235">
+      <c r="A235" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E235" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F235" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="G235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="I235" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="236">
+      <c r="A236" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D236" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E236" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
